--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuya vivienda tiene &lt;=2 habitaciones</t>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 16,75</t>
+          <t>0,0; 20,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 15,16</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 24,96</t>
+          <t>0,0; 17,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 17,83</t>
+          <t>3,14; 26,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 35,0</t>
+          <t>0,0; 14,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 24,22</t>
+          <t>2,53; 18,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,07</t>
+          <t>3,23; 20,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 20,98</t>
+          <t>1,86; 17,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 20,72</t>
+          <t>1,48; 11,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 12,29</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 14,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 18,72</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>33,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 50,46</t>
+          <t>20,75; 66,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 33,58</t>
+          <t>9,77; 37,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 29,5</t>
+          <t>5,66; 27,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 48,88</t>
+          <t>6,09; 31,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 44,98</t>
+          <t>17,86; 43,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,62; 45,63</t>
+          <t>19,29; 44,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,1; 45,76</t>
+          <t>19,44; 44,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 36,21</t>
+          <t>10,33; 34,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,47; 34,12</t>
+          <t>23,43; 52,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 36,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 31,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,15; 29,47</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 31,99</t>
+          <t>6,48; 24,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,4; 42,19</t>
+          <t>12,07; 32,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 41,7</t>
+          <t>13,2; 34,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 27,84</t>
+          <t>10,48; 30,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,7; 25,56</t>
+          <t>11,55; 26,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 27,37</t>
+          <t>10,52; 25,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,53</t>
+          <t>12,38; 27,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 31,54</t>
+          <t>7,46; 20,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,32; 31,86</t>
+          <t>10,93; 22,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 24,67</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 27,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 22,57</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 16,25</t>
+          <t>6,1; 20,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 22,0</t>
+          <t>5,74; 20,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 18,66</t>
+          <t>5,8; 20,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 24,48</t>
+          <t>5,72; 21,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 25,49</t>
+          <t>8,8; 23,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 23,71</t>
+          <t>10,0; 25,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,46</t>
+          <t>8,05; 22,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,76</t>
+          <t>9,68; 24,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 19,37</t>
+          <t>8,82; 18,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 20,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,52; 18,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 20,41</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 32,45</t>
+          <t>6,37; 36,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 31,22</t>
+          <t>6,72; 38,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 29,21</t>
+          <t>8,75; 36,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 27,41</t>
+          <t>8,68; 33,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 29,9</t>
+          <t>10,43; 33,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 26,96</t>
+          <t>10,27; 33,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 26,41</t>
+          <t>9,56; 32,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 26,13</t>
+          <t>9,19; 34,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 24,48</t>
+          <t>10,71; 29,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 31,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 31,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 28,87</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 24,13</t>
+          <t>2,55; 23,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 23,7</t>
+          <t>2,17; 19,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,32; 26,52</t>
+          <t>2,34; 20,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,14; 32,96</t>
+          <t>5,01; 29,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,9; 32,09</t>
+          <t>15,52; 44,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 36,99</t>
+          <t>18,73; 47,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,5; 27,45</t>
+          <t>18,75; 48,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,99; 26,27</t>
+          <t>11,78; 40,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,03; 29,25</t>
+          <t>12,81; 29,94</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13,17; 30,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 31,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11,59; 30,34</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,15</t>
+          <t>12,13; 25,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,74</t>
+          <t>10,6; 19,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,9</t>
+          <t>9,88; 17,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,41</t>
+          <t>10,93; 20,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,42</t>
+          <t>14,71; 22,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 24,63</t>
+          <t>16,1; 24,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,23</t>
+          <t>16,53; 24,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 22,65</t>
+          <t>12,91; 21,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,76; 22,13</t>
+          <t>14,98; 22,11</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 20,33</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 19,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 19,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,75%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7334</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2602</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7236</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15859</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9436</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11626</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10078</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12038</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18863</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25937</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22227</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14388</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22160</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4369; 36348</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19880</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3042; 21682</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3961; 24951</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2699; 24964</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3579; 28688</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4977; 27760</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7666; 37070</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10849; 53281</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64409</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31925</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21976</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39030</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47873</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39083</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39556</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34460</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>112282</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>71007</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>61531</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73490</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35020; 112597</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14005; 53435</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8734; 43097</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13875; 71207</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29489; 71145</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24442; 56102</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24550; 56377</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16767; 56415</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>78214; 174847</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45014; 98511</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36472; 88798</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43484; 114970</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21881</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27709</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29928</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33141</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>47684</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35411</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37960</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31906</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>69565</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63121</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67888</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10508; 39206</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16222; 43825</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18166; 47055</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18591; 53562</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30502; 71084</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22024; 54093</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24823; 55366</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17738; 49819</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46571; 96809</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43202; 84787</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47539; 91272</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>44374; 93694</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21293</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18374</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17397</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23500</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31398</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24390</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34410</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53309</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49772</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41787</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>57910</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11387; 38244</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9136; 33067</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9054; 31929</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11391; 42349</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19206; 50253</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18595; 46654</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13875; 38123</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20584; 53174</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35736; 75549</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34521; 70044</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28011; 61820</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38537; 84032</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25551</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21360</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22136</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27590</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22657</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18841</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17984</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26385</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48208</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>40201</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40120</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>53975</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10031; 56923</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8737; 49655</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10779; 44791</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13426; 52377</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12116; 38556</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9631; 31257</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8864; 29741</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12593; 46605</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29312; 81989</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24453; 70893</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25322; 67169</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32169; 84226</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10932</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6124</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6870</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18738</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37946</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>33339</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35407</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>47438</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>48878</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39464</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>42277</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>66176</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2714; 24914</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1899; 16771</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2113; 18809</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6900; 40847</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21355; 60699</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19691; 49606</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>20740; 53451</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24450; 84174</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31267; 73106</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25357; 58299</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>26075; 63575</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>40044; 104817</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>151400</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>108094</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>105543</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>157859</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>193854</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>166923</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>184678</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>345253</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>275602</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>272466</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>342537</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>107809; 222416</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>80515; 147458</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>77990; 139431</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>113214; 213221</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>152305; 233896</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>135436; 202871</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>136346; 205894</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>142372; 236412</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>288260; 425339</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>228129; 325447</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>225374; 322446</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>278214; 412553</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>